--- a/public/static/files/Mau_Import_FactoryArea.xlsx
+++ b/public/static/files/Mau_Import_FactoryArea.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\esdmanagerweb\public\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E9556F-06F8-4C25-90DE-87FED7B10430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DF2277-1D81-409C-B325-FF467631E1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{421E80CA-FE56-4F1B-8F82-1274DBEEC046}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{421E80CA-FE56-4F1B-8F82-1274DBEEC046}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,27 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Root</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>CODE MAU</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>Mã khu vực</t>
+  </si>
+  <si>
+    <t>Tên khu vực quản lý</t>
+  </si>
+  <si>
+    <t>Tên khu vực</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>KV_09</t>
+  </si>
+  <si>
+    <t>Nhà máy 2</t>
+  </si>
+  <si>
+    <t>Khu vực 09</t>
   </si>
 </sst>
 </file>
@@ -413,42 +416,52 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="18.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/public/static/files/Mau_Import_FactoryArea.xlsx
+++ b/public/static/files/Mau_Import_FactoryArea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\esdmanagerweb\public\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DF2277-1D81-409C-B325-FF467631E1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348FAAA7-E3C2-411B-B323-53274DF2BDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{421E80CA-FE56-4F1B-8F82-1274DBEEC046}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Mã khu vực</t>
   </si>
   <si>
-    <t>Tên khu vực quản lý</t>
-  </si>
-  <si>
     <t>Tên khu vực</t>
   </si>
   <si>
@@ -45,10 +42,10 @@
     <t>KV_09</t>
   </si>
   <si>
-    <t>Nhà máy 2</t>
-  </si>
-  <si>
     <t>Khu vực 09</t>
+  </si>
+  <si>
+    <t>Mã khu vực quản lý</t>
   </si>
 </sst>
 </file>
@@ -416,7 +413,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -434,34 +431,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
